--- a/data/cong_polarization.xlsx
+++ b/data/cong_polarization.xlsx
@@ -3836,7 +3836,7 @@
         <v>1975</v>
       </c>
       <c r="D50">
-        <v>0.5802278911564626</v>
+        <v>0.580234693877551</v>
       </c>
       <c r="E50">
         <v>0.3560090702947846</v>
@@ -3851,10 +3851,10 @@
         <v>0.4399092970521542</v>
       </c>
       <c r="I50">
-        <v>-0.1218798185941043</v>
+        <v>-0.1218775510204082</v>
       </c>
       <c r="J50">
-        <v>0.03621315192743764</v>
+        <v>0.03622675736961451</v>
       </c>
       <c r="K50">
         <v>-0.3152891156462585</v>
@@ -3863,16 +3863,16 @@
         <v>0.1418809523809524</v>
       </c>
       <c r="M50">
-        <v>0.2649387755102041</v>
+        <v>0.2649455782312925</v>
       </c>
       <c r="N50">
-        <v>-0.1751224489795918</v>
+        <v>-0.1750816326530612</v>
       </c>
       <c r="O50">
-        <v>0.2517731092436975</v>
+        <v>0.251781512605042</v>
       </c>
       <c r="P50">
-        <v>-0.2345378151260504</v>
+        <v>-0.2344873949579832</v>
       </c>
       <c r="Q50">
         <v>0.3208928571428571</v>
@@ -3906,7 +3906,7 @@
         <v>1977</v>
       </c>
       <c r="D51">
-        <v>0.5729727891156462</v>
+        <v>0.5729795918367346</v>
       </c>
       <c r="E51">
         <v>0.3650793650793651</v>
@@ -3921,28 +3921,28 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="I51">
-        <v>-0.114907029478458</v>
+        <v>-0.1149047619047619</v>
       </c>
       <c r="J51">
-        <v>0.01960997732426304</v>
+        <v>0.01962585034013605</v>
       </c>
       <c r="K51">
         <v>-0.3058979591836735</v>
       </c>
       <c r="L51">
-        <v>0.1187278911564626</v>
+        <v>0.1187312925170068</v>
       </c>
       <c r="M51">
-        <v>0.2670748299319728</v>
+        <v>0.2670816326530612</v>
       </c>
       <c r="N51">
-        <v>-0.1786258503401361</v>
+        <v>-0.1785850340136055</v>
       </c>
       <c r="O51">
-        <v>0.2572773109243697</v>
+        <v>0.2572857142857143</v>
       </c>
       <c r="P51">
-        <v>-0.243563025210084</v>
+        <v>-0.2435126050420168</v>
       </c>
       <c r="Q51">
         <v>0.3087142857142857</v>
@@ -3954,7 +3954,7 @@
         <v>-0.3611352657004831</v>
       </c>
       <c r="T51">
-        <v>-0.07124154589371981</v>
+        <v>-0.07123671497584541</v>
       </c>
       <c r="U51">
         <v>-0.1744712643678161</v>
@@ -3976,7 +3976,7 @@
         <v>1979</v>
       </c>
       <c r="D52">
-        <v>0.5960310116929334</v>
+        <v>0.5960372228730576</v>
       </c>
       <c r="E52">
         <v>0.3461538461538461</v>
@@ -3991,28 +3991,28 @@
         <v>0.4230769230769231</v>
       </c>
       <c r="I52">
-        <v>-0.084210407239819</v>
+        <v>-0.08420814479638009</v>
       </c>
       <c r="J52">
-        <v>0.004683257918552034</v>
+        <v>0.004699095022624433</v>
       </c>
       <c r="K52">
         <v>-0.3013167259786477</v>
       </c>
       <c r="L52">
-        <v>0.1096939501779359</v>
+        <v>0.1096975088967971</v>
       </c>
       <c r="M52">
-        <v>0.2947142857142857</v>
+        <v>0.2947204968944099</v>
       </c>
       <c r="N52">
-        <v>-0.1785962732919255</v>
+        <v>-0.1785590062111801</v>
       </c>
       <c r="O52">
-        <v>0.2840077519379845</v>
+        <v>0.284015503875969</v>
       </c>
       <c r="P52">
-        <v>-0.2381472868217054</v>
+        <v>-0.2381007751937985</v>
       </c>
       <c r="Q52">
         <v>0.337875</v>
@@ -4024,7 +4024,7 @@
         <v>-0.3568140703517588</v>
       </c>
       <c r="T52">
-        <v>-0.07038190954773869</v>
+        <v>-0.07037688442211056</v>
       </c>
       <c r="U52">
         <v>-0.1666341463414634</v>
@@ -4046,7 +4046,7 @@
         <v>1981</v>
       </c>
       <c r="D53">
-        <v>0.606861046847889</v>
+        <v>0.606865095430885</v>
       </c>
       <c r="E53">
         <v>0.3423423423423423</v>
@@ -4061,13 +4061,13 @@
         <v>0.4966139954853273</v>
       </c>
       <c r="I53">
-        <v>-0.03296621621621622</v>
+        <v>-0.03296846846846847</v>
       </c>
       <c r="J53">
         <v>-0.03660135135135135</v>
       </c>
       <c r="K53">
-        <v>-0.3003967611336033</v>
+        <v>-0.3004008097165992</v>
       </c>
       <c r="L53">
         <v>0.09217004048582995</v>
@@ -4091,7 +4091,7 @@
         <v>0.01625</v>
       </c>
       <c r="S53">
-        <v>-0.3647456647398844</v>
+        <v>-0.3647514450867052</v>
       </c>
       <c r="T53">
         <v>-0.1066242774566474</v>
@@ -4116,7 +4116,7 @@
         <v>1983</v>
       </c>
       <c r="D54">
-        <v>0.6273952315956323</v>
+        <v>0.6273989080662206</v>
       </c>
       <c r="E54">
         <v>0.316628701594533</v>
@@ -4131,16 +4131,16 @@
         <v>0.4305239179954442</v>
       </c>
       <c r="I54">
-        <v>-0.06312300683371298</v>
+        <v>-0.06312528473804101</v>
       </c>
       <c r="J54">
-        <v>-0.0347881548974943</v>
+        <v>-0.03479271070615034</v>
       </c>
       <c r="K54">
-        <v>-0.3017904411764706</v>
+        <v>-0.3017941176470588</v>
       </c>
       <c r="L54">
-        <v>0.07078308823529411</v>
+        <v>0.07077573529411765</v>
       </c>
       <c r="M54">
         <v>0.3256047904191617</v>
@@ -4161,10 +4161,10 @@
         <v>-0.007611111111111112</v>
       </c>
       <c r="S54">
-        <v>-0.3663101604278075</v>
+        <v>-0.3663155080213904</v>
       </c>
       <c r="T54">
-        <v>-0.1262085561497326</v>
+        <v>-0.1262192513368984</v>
       </c>
       <c r="U54">
         <v>-0.1598470588235294</v>
@@ -4186,7 +4186,7 @@
         <v>1985</v>
       </c>
       <c r="D55">
-        <v>0.6432528541497413</v>
+        <v>0.6432567452003249</v>
       </c>
       <c r="E55">
         <v>0.3052391799544419</v>
@@ -4201,16 +4201,16 @@
         <v>0.0979498861047836</v>
       </c>
       <c r="I55">
-        <v>-0.04285421412300684</v>
+        <v>-0.04285649202733485</v>
       </c>
       <c r="J55">
-        <v>-0.04013439635535308</v>
+        <v>-0.04013895216400911</v>
       </c>
       <c r="K55">
-        <v>-0.3095330739299611</v>
+        <v>-0.3095369649805447</v>
       </c>
       <c r="L55">
-        <v>0.08185603112840467</v>
+        <v>0.08184824902723735</v>
       </c>
       <c r="M55">
         <v>0.3337197802197802</v>
@@ -4231,10 +4231,10 @@
         <v>-0.006409090909090908</v>
       </c>
       <c r="S55">
-        <v>-0.3625139664804469</v>
+        <v>-0.3625195530726257</v>
       </c>
       <c r="T55">
-        <v>-0.1081284916201117</v>
+        <v>-0.1081396648044693</v>
       </c>
       <c r="U55">
         <v>-0.187948717948718</v>
@@ -4274,19 +4274,19 @@
         <v>-0.04766893424036282</v>
       </c>
       <c r="J56">
-        <v>-0.04426303854875283</v>
+        <v>-0.04426530612244898</v>
       </c>
       <c r="K56">
         <v>-0.3093358778625954</v>
       </c>
       <c r="L56">
-        <v>0.08473282442748091</v>
+        <v>0.08472519083969465</v>
       </c>
       <c r="M56">
         <v>0.3353296089385475</v>
       </c>
       <c r="N56">
-        <v>-0.233072625698324</v>
+        <v>-0.2330670391061453</v>
       </c>
       <c r="O56">
         <v>0.3138832116788321</v>
@@ -4298,13 +4298,13 @@
         <v>0.4052857142857143</v>
       </c>
       <c r="R56">
-        <v>-0.02961904761904762</v>
+        <v>-0.02959523809523809</v>
       </c>
       <c r="S56">
         <v>-0.3597197802197802</v>
       </c>
       <c r="T56">
-        <v>-0.09381318681318682</v>
+        <v>-0.09382417582417582</v>
       </c>
       <c r="U56">
         <v>-0.1947125</v>
@@ -4344,19 +4344,19 @@
         <v>-0.04904943820224719</v>
       </c>
       <c r="J57">
-        <v>-0.05215280898876404</v>
+        <v>-0.05215730337078651</v>
       </c>
       <c r="K57">
         <v>-0.3130603773584906</v>
       </c>
       <c r="L57">
-        <v>0.0808943396226415</v>
+        <v>0.08088301886792452</v>
       </c>
       <c r="M57">
         <v>0.3396333333333333</v>
       </c>
       <c r="N57">
-        <v>-0.2480277777777778</v>
+        <v>-0.2480222222222222</v>
       </c>
       <c r="O57">
         <v>0.3220735294117647</v>
@@ -4368,13 +4368,13 @@
         <v>0.3939090909090909</v>
       </c>
       <c r="R57">
-        <v>-0.04622727272727273</v>
+        <v>-0.04620454545454545</v>
       </c>
       <c r="S57">
         <v>-0.3598532608695652</v>
       </c>
       <c r="T57">
-        <v>-0.09990760869565217</v>
+        <v>-0.09992391304347827</v>
       </c>
       <c r="U57">
         <v>-0.2067654320987654</v>
@@ -4414,19 +4414,19 @@
         <v>-0.06071201814058957</v>
       </c>
       <c r="J58">
-        <v>-0.04008163265306122</v>
+        <v>-0.04008616780045351</v>
       </c>
       <c r="K58">
         <v>-0.3142407407407408</v>
       </c>
       <c r="L58">
-        <v>0.0803</v>
+        <v>0.08028888888888888</v>
       </c>
       <c r="M58">
         <v>0.3447235294117647</v>
       </c>
       <c r="N58">
-        <v>-0.2291529411764706</v>
+        <v>-0.2291470588235294</v>
       </c>
       <c r="O58">
         <v>0.3229763779527559</v>
@@ -4438,13 +4438,13 @@
         <v>0.408953488372093</v>
       </c>
       <c r="R58">
-        <v>-0.04158139534883721</v>
+        <v>-0.04155813953488372</v>
       </c>
       <c r="S58">
         <v>-0.3590628272251309</v>
       </c>
       <c r="T58">
-        <v>-0.08281151832460733</v>
+        <v>-0.08282722513089005</v>
       </c>
       <c r="U58">
         <v>-0.205873417721519</v>
@@ -4466,7 +4466,7 @@
         <v>1993</v>
       </c>
       <c r="D59">
-        <v>0.7043308429118773</v>
+        <v>0.7043030651340996</v>
       </c>
       <c r="E59">
         <v>0.2760180995475113</v>
@@ -4481,46 +4481,46 @@
         <v>0.02494331065759637</v>
       </c>
       <c r="I59">
-        <v>-0.04693212669683258</v>
+        <v>-0.04694343891402715</v>
       </c>
       <c r="J59">
-        <v>-0.03381221719457014</v>
+        <v>-0.03384162895927602</v>
       </c>
       <c r="K59">
         <v>-0.3333141762452107</v>
       </c>
       <c r="L59">
-        <v>0.06973563218390805</v>
+        <v>0.06971647509578544</v>
       </c>
       <c r="M59">
-        <v>0.3710166666666667</v>
+        <v>0.3709888888888889</v>
       </c>
       <c r="N59">
-        <v>-0.1819166666666667</v>
+        <v>-0.1819611111111111</v>
       </c>
       <c r="O59">
-        <v>0.351031007751938</v>
+        <v>0.3509922480620155</v>
       </c>
       <c r="P59">
-        <v>-0.2637596899224806</v>
+        <v>-0.2638294573643411</v>
       </c>
       <c r="Q59">
         <v>0.4215686274509804</v>
       </c>
       <c r="R59">
-        <v>0.02509803921568628</v>
+        <v>0.02511764705882353</v>
       </c>
       <c r="S59">
         <v>-0.3675414364640884</v>
       </c>
       <c r="T59">
-        <v>-0.0749060773480663</v>
+        <v>-0.07492265193370165</v>
       </c>
       <c r="U59">
         <v>-0.255875</v>
       </c>
       <c r="V59">
-        <v>0.3969875</v>
+        <v>0.3969625</v>
       </c>
     </row>
     <row r="60">
@@ -4536,7 +4536,7 @@
         <v>1995</v>
       </c>
       <c r="D60">
-        <v>0.7582329693611474</v>
+        <v>0.7582165906127771</v>
       </c>
       <c r="E60">
         <v>0.197752808988764</v>
@@ -4551,46 +4551,46 @@
         <v>0.01801801801801802</v>
       </c>
       <c r="I60">
-        <v>0.04030786516853933</v>
+        <v>0.04029438202247191</v>
       </c>
       <c r="J60">
-        <v>-0.03480449438202247</v>
+        <v>-0.03481797752808989</v>
       </c>
       <c r="K60">
-        <v>-0.3614278846153846</v>
+        <v>-0.3614326923076923</v>
       </c>
       <c r="L60">
-        <v>0.06137980769230769</v>
+        <v>0.06137019230769231</v>
       </c>
       <c r="M60">
-        <v>0.3968050847457627</v>
+        <v>0.3967838983050848</v>
       </c>
       <c r="N60">
-        <v>-0.1180254237288136</v>
+        <v>-0.1180423728813559</v>
       </c>
       <c r="O60">
-        <v>0.3748036809815951</v>
+        <v>0.3747730061349693</v>
       </c>
       <c r="P60">
-        <v>-0.1902453987730061</v>
+        <v>-0.1902944785276074</v>
       </c>
       <c r="Q60">
         <v>0.4459315068493151</v>
       </c>
       <c r="R60">
-        <v>0.04323287671232877</v>
+        <v>0.04328767123287671</v>
       </c>
       <c r="S60">
-        <v>-0.3951621621621622</v>
+        <v>-0.3951689189189189</v>
       </c>
       <c r="T60">
-        <v>-0.07047972972972973</v>
+        <v>-0.07048648648648649</v>
       </c>
       <c r="U60">
         <v>-0.2782166666666667</v>
       </c>
       <c r="V60">
-        <v>0.3866333333333333</v>
+        <v>0.3866166666666667</v>
       </c>
     </row>
     <row r="61">
@@ -4606,7 +4606,7 @@
         <v>1997</v>
       </c>
       <c r="D61">
-        <v>0.7772873682920853</v>
+        <v>0.7772755452095075</v>
       </c>
       <c r="E61">
         <v>0.1554054054054054</v>
@@ -4621,46 +4621,46 @@
         <v>0.01805869074492099</v>
       </c>
       <c r="I61">
-        <v>0.0284481981981982</v>
+        <v>0.02842792792792793</v>
       </c>
       <c r="J61">
-        <v>-0.0220990990990991</v>
+        <v>-0.02212162162162162</v>
       </c>
       <c r="K61">
-        <v>-0.3755990566037736</v>
+        <v>-0.3756132075471698</v>
       </c>
       <c r="L61">
-        <v>0.03609905660377358</v>
+        <v>0.03608490566037736</v>
       </c>
       <c r="M61">
-        <v>0.4016883116883117</v>
+        <v>0.4016623376623377</v>
       </c>
       <c r="N61">
-        <v>-0.07387012987012986</v>
+        <v>-0.0739004329004329</v>
       </c>
       <c r="O61">
-        <v>0.3818961038961039</v>
+        <v>0.3818571428571428</v>
       </c>
       <c r="P61">
-        <v>-0.1390064935064935</v>
+        <v>-0.1390909090909091</v>
       </c>
       <c r="Q61">
         <v>0.4412727272727273</v>
       </c>
       <c r="R61">
-        <v>0.05640259740259741</v>
+        <v>0.05648051948051948</v>
       </c>
       <c r="S61">
-        <v>-0.398375</v>
+        <v>-0.39839375</v>
       </c>
       <c r="T61">
-        <v>-0.05716875</v>
+        <v>-0.05718125</v>
       </c>
       <c r="U61">
         <v>-0.3055192307692308</v>
       </c>
       <c r="V61">
-        <v>0.3230769230769231</v>
+        <v>0.3230576923076923</v>
       </c>
     </row>
     <row r="62">
@@ -4676,7 +4676,7 @@
         <v>1999</v>
       </c>
       <c r="D62">
-        <v>0.7770779342723004</v>
+        <v>0.7770562128325509</v>
       </c>
       <c r="E62">
         <v>0.1568181818181818</v>
@@ -4691,46 +4691,46 @@
         <v>0.01598173515981735</v>
       </c>
       <c r="I62">
-        <v>0.02630227272727273</v>
+        <v>0.02628181818181818</v>
       </c>
       <c r="J62">
-        <v>-0.007377272727272727</v>
+        <v>-0.007438636363636363</v>
       </c>
       <c r="K62">
-        <v>-0.3728779342723005</v>
+        <v>-0.372887323943662</v>
       </c>
       <c r="L62">
         <v>0.04429577464788732</v>
       </c>
       <c r="M62">
-        <v>0.4042</v>
+        <v>0.4041688888888889</v>
       </c>
       <c r="N62">
-        <v>-0.05698222222222222</v>
+        <v>-0.05710222222222222</v>
       </c>
       <c r="O62">
-        <v>0.3842925170068027</v>
+        <v>0.3842448979591837</v>
       </c>
       <c r="P62">
-        <v>-0.1235374149659864</v>
+        <v>-0.1237619047619048</v>
       </c>
       <c r="Q62">
         <v>0.4417179487179487</v>
       </c>
       <c r="R62">
-        <v>0.06844871794871794</v>
+        <v>0.06852564102564103</v>
       </c>
       <c r="S62">
-        <v>-0.3967469135802469</v>
+        <v>-0.3967592592592593</v>
       </c>
       <c r="T62">
-        <v>-0.04281481481481482</v>
+        <v>-0.04280864197530864</v>
       </c>
       <c r="U62">
         <v>-0.2970588235294118</v>
       </c>
       <c r="V62">
-        <v>0.321</v>
+        <v>0.3209803921568627</v>
       </c>
     </row>
     <row r="63">
@@ -4746,7 +4746,7 @@
         <v>2001</v>
       </c>
       <c r="D63">
-        <v>0.7866426053451385</v>
+        <v>0.786634694212166</v>
       </c>
       <c r="E63">
         <v>0.1463963963963964</v>
@@ -4761,46 +4761,46 @@
         <v>0.009049773755656109</v>
       </c>
       <c r="I63">
-        <v>0.02894144144144144</v>
+        <v>0.02892342342342342</v>
       </c>
       <c r="J63">
-        <v>0.004867117117117117</v>
+        <v>0.004826576576576576</v>
       </c>
       <c r="K63">
-        <v>-0.3768224299065421</v>
+        <v>-0.3768364485981309</v>
       </c>
       <c r="L63">
         <v>0.03988785046728972</v>
       </c>
       <c r="M63">
-        <v>0.4098201754385965</v>
+        <v>0.4097982456140351</v>
       </c>
       <c r="N63">
-        <v>-0.02857456140350877</v>
+        <v>-0.02865350877192982</v>
       </c>
       <c r="O63">
-        <v>0.3901643835616438</v>
+        <v>0.3901095890410959</v>
       </c>
       <c r="P63">
-        <v>-0.1042054794520548</v>
+        <v>-0.1044315068493151</v>
       </c>
       <c r="Q63">
-        <v>0.4448170731707317</v>
+        <v>0.4448536585365854</v>
       </c>
       <c r="R63">
-        <v>0.1060853658536585</v>
+        <v>0.1062682926829268</v>
       </c>
       <c r="S63">
-        <v>-0.3996257668711656</v>
+        <v>-0.3996441717791411</v>
       </c>
       <c r="T63">
-        <v>-0.04743558282208589</v>
+        <v>-0.04742944785276074</v>
       </c>
       <c r="U63">
         <v>-0.3039411764705882</v>
       </c>
       <c r="V63">
-        <v>0.3189803921568627</v>
+        <v>0.3189607843137255</v>
       </c>
     </row>
     <row r="64">
@@ -4816,7 +4816,7 @@
         <v>2003</v>
       </c>
       <c r="D64">
-        <v>0.7930287629037629</v>
+        <v>0.7930350066600067</v>
       </c>
       <c r="E64">
         <v>0.1340909090909091</v>
@@ -4831,46 +4831,46 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0.03978409090909091</v>
+        <v>0.03976818181818182</v>
       </c>
       <c r="J64">
-        <v>0.01654772727272727</v>
+        <v>0.01650909090909091</v>
       </c>
       <c r="K64">
-        <v>-0.3762019230769231</v>
+        <v>-0.3762211538461538</v>
       </c>
       <c r="L64">
-        <v>0.04780288461538462</v>
+        <v>0.04780769230769231</v>
       </c>
       <c r="M64">
-        <v>0.4168268398268398</v>
+        <v>0.4168138528138528</v>
       </c>
       <c r="N64">
-        <v>-0.009787878787878788</v>
+        <v>-0.009865800865800866</v>
       </c>
       <c r="O64">
-        <v>0.3989797297297297</v>
+        <v>0.3989256756756757</v>
       </c>
       <c r="P64">
-        <v>-0.08557432432432432</v>
+        <v>-0.08581081081081081</v>
       </c>
       <c r="Q64">
-        <v>0.4486506024096386</v>
+        <v>0.448710843373494</v>
       </c>
       <c r="R64">
-        <v>0.1253493975903615</v>
+        <v>0.1255542168674699</v>
       </c>
       <c r="S64">
-        <v>-0.404461038961039</v>
+        <v>-0.4044805194805195</v>
       </c>
       <c r="T64">
-        <v>-0.05012987012987013</v>
+        <v>-0.05011688311688312</v>
       </c>
       <c r="U64">
-        <v>-0.2956111111111111</v>
+        <v>-0.2956296296296296</v>
       </c>
       <c r="V64">
-        <v>0.3270925925925926</v>
+        <v>0.3270740740740741</v>
       </c>
     </row>
     <row r="65">
@@ -4886,7 +4886,7 @@
         <v>2005</v>
       </c>
       <c r="D65">
-        <v>0.8100436432239807</v>
+        <v>0.8100879781993502</v>
       </c>
       <c r="E65">
         <v>0.1252847380410023</v>
@@ -4901,46 +4901,46 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0.04615945330296128</v>
+        <v>0.04613895216400911</v>
       </c>
       <c r="J65">
-        <v>0.0125626423690205</v>
+        <v>0.01257858769931663</v>
       </c>
       <c r="K65">
-        <v>-0.3871330049261084</v>
+        <v>-0.3871773399014778</v>
       </c>
       <c r="L65">
-        <v>0.03110344827586207</v>
+        <v>0.03109852216748768</v>
       </c>
       <c r="M65">
         <v>0.4229106382978723</v>
       </c>
       <c r="N65">
-        <v>-0.001693617021276596</v>
+        <v>-0.001659574468085106</v>
       </c>
       <c r="O65">
-        <v>0.3995405405405406</v>
+        <v>0.3995202702702703</v>
       </c>
       <c r="P65">
-        <v>-0.07717567567567568</v>
+        <v>-0.07723648648648648</v>
       </c>
       <c r="Q65">
-        <v>0.4626666666666667</v>
+        <v>0.4627011494252873</v>
       </c>
       <c r="R65">
-        <v>0.1267126436781609</v>
+        <v>0.1269080459770115</v>
       </c>
       <c r="S65">
-        <v>-0.4056178343949045</v>
+        <v>-0.4056624203821656</v>
       </c>
       <c r="T65">
-        <v>-0.04565605095541402</v>
+        <v>-0.04564968152866242</v>
       </c>
       <c r="U65">
-        <v>-0.3240434782608695</v>
+        <v>-0.3240869565217391</v>
       </c>
       <c r="V65">
-        <v>0.2930869565217391</v>
+        <v>0.2930434782608696</v>
       </c>
     </row>
     <row r="66">
@@ -4956,7 +4956,7 @@
         <v>2007</v>
       </c>
       <c r="D66">
-        <v>0.8076683382813127</v>
+        <v>0.8076945759447967</v>
       </c>
       <c r="E66">
         <v>0.1383928571428572</v>
@@ -4971,43 +4971,43 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>0.003457589285714286</v>
+        <v>0.003453125</v>
       </c>
       <c r="J66">
-        <v>0.03711830357142857</v>
+        <v>0.03714508928571428</v>
       </c>
       <c r="K66">
-        <v>-0.3679256198347107</v>
+        <v>-0.3679421487603306</v>
       </c>
       <c r="L66">
-        <v>0.04473140495867769</v>
+        <v>0.04474380165289256</v>
       </c>
       <c r="M66">
-        <v>0.439742718446602</v>
+        <v>0.439752427184466</v>
       </c>
       <c r="N66">
-        <v>0.0281747572815534</v>
+        <v>0.02821844660194175</v>
       </c>
       <c r="O66">
-        <v>0.4178196721311476</v>
+        <v>0.417811475409836</v>
       </c>
       <c r="P66">
-        <v>-0.04671311475409836</v>
+        <v>-0.04676229508196721</v>
       </c>
       <c r="Q66">
-        <v>0.4715833333333334</v>
+        <v>0.4716190476190476</v>
       </c>
       <c r="R66">
-        <v>0.1369404761904762</v>
+        <v>0.1371190476190476</v>
       </c>
       <c r="S66">
-        <v>-0.3861382978723404</v>
+        <v>-0.3861489361702128</v>
       </c>
       <c r="T66">
-        <v>-0.02830851063829787</v>
+        <v>-0.02829255319148936</v>
       </c>
       <c r="U66">
-        <v>-0.3045185185185185</v>
+        <v>-0.3045555555555556</v>
       </c>
       <c r="V66">
         <v>0.2990185185185185</v>
@@ -5026,7 +5026,7 @@
         <v>2009</v>
       </c>
       <c r="D67">
-        <v>0.8046091961187641</v>
+        <v>0.8046593322113487</v>
       </c>
       <c r="E67">
         <v>0.1681614349775785</v>
@@ -5041,43 +5041,43 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>-0.01796412556053812</v>
+        <v>-0.01796636771300448</v>
       </c>
       <c r="J67">
-        <v>0.03568834080717489</v>
+        <v>0.03574215246636771</v>
       </c>
       <c r="K67">
-        <v>-0.348106463878327</v>
+        <v>-0.3481292775665399</v>
       </c>
       <c r="L67">
-        <v>0.03911787072243346</v>
+        <v>0.0391254752851711</v>
       </c>
       <c r="M67">
-        <v>0.4565027322404371</v>
+        <v>0.4565300546448087</v>
       </c>
       <c r="N67">
-        <v>0.03075956284153005</v>
+        <v>0.03087978142076503</v>
       </c>
       <c r="O67">
-        <v>0.4383904761904762</v>
+        <v>0.4383809523809524</v>
       </c>
       <c r="P67">
-        <v>-0.03744761904761905</v>
+        <v>-0.03743809523809524</v>
       </c>
       <c r="Q67">
-        <v>0.4808846153846154</v>
+        <v>0.4809615384615384</v>
       </c>
       <c r="R67">
-        <v>0.1225769230769231</v>
+        <v>0.1228461538461538</v>
       </c>
       <c r="S67">
-        <v>-0.3633658536585366</v>
+        <v>-0.3633756097560976</v>
       </c>
       <c r="T67">
-        <v>-0.02397560975609756</v>
+        <v>-0.02396585365853659</v>
       </c>
       <c r="U67">
-        <v>-0.2941724137931034</v>
+        <v>-0.2942413793103448</v>
       </c>
       <c r="V67">
         <v>0.2621206896551724</v>
@@ -5096,7 +5096,7 @@
         <v>2011</v>
       </c>
       <c r="D68">
-        <v>0.8613263265306123</v>
+        <v>0.8613758163265306</v>
       </c>
       <c r="E68">
         <v>0.0898876404494382</v>
@@ -5111,43 +5111,43 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0.08110337078651686</v>
+        <v>0.08110561797752809</v>
       </c>
       <c r="J68">
-        <v>0.004451685393258427</v>
+        <v>0.004530337078651686</v>
       </c>
       <c r="K68">
-        <v>-0.39311</v>
+        <v>-0.393135</v>
       </c>
       <c r="L68">
-        <v>-0.032675</v>
+        <v>-0.03266</v>
       </c>
       <c r="M68">
-        <v>0.4682163265306122</v>
+        <v>0.4682408163265306</v>
       </c>
       <c r="N68">
-        <v>0.03475918367346939</v>
+        <v>0.03488979591836735</v>
       </c>
       <c r="O68">
-        <v>0.444758389261745</v>
+        <v>0.4447248322147651</v>
       </c>
       <c r="P68">
-        <v>-0.01452348993288591</v>
+        <v>-0.0144496644295302</v>
       </c>
       <c r="Q68">
-        <v>0.504625</v>
+        <v>0.5047395833333334</v>
       </c>
       <c r="R68">
-        <v>0.11125</v>
+        <v>0.11146875</v>
       </c>
       <c r="S68">
         <v>-0.4006234567901235</v>
       </c>
       <c r="T68">
-        <v>-0.08937037037037038</v>
+        <v>-0.08935185185185185</v>
       </c>
       <c r="U68">
-        <v>-0.3610789473684211</v>
+        <v>-0.3612105263157895</v>
       </c>
       <c r="V68">
         <v>0.2090263157894737</v>
@@ -5166,7 +5166,7 @@
         <v>2013</v>
       </c>
       <c r="D69">
-        <v>0.8675485294117647</v>
+        <v>0.8676078431372549</v>
       </c>
       <c r="E69">
         <v>0.09234234234234234</v>
@@ -5181,46 +5181,46 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0.08462162162162162</v>
+        <v>0.08461936936936937</v>
       </c>
       <c r="J69">
-        <v>-0.008452702702702703</v>
+        <v>-0.008355855855855856</v>
       </c>
       <c r="K69">
-        <v>-0.3843235294117647</v>
+        <v>-0.3843578431372549</v>
       </c>
       <c r="L69">
-        <v>-0.07079901960784314</v>
+        <v>-0.07079411764705883</v>
       </c>
       <c r="M69">
-        <v>0.483225</v>
+        <v>0.48325</v>
       </c>
       <c r="N69">
-        <v>0.04454166666666667</v>
+        <v>0.04471666666666667</v>
       </c>
       <c r="O69">
-        <v>0.4524328358208956</v>
+        <v>0.4524179104477612</v>
       </c>
       <c r="P69">
-        <v>0.01367910447761194</v>
+        <v>0.01387313432835821</v>
       </c>
       <c r="Q69">
-        <v>0.5221509433962264</v>
+        <v>0.5222264150943396</v>
       </c>
       <c r="R69">
-        <v>0.08355660377358491</v>
+        <v>0.08370754716981132</v>
       </c>
       <c r="S69">
         <v>-0.3857987804878049</v>
       </c>
       <c r="T69">
-        <v>-0.1156341463414634</v>
+        <v>-0.1156219512195122</v>
       </c>
       <c r="U69">
-        <v>-0.378275</v>
+        <v>-0.37845</v>
       </c>
       <c r="V69">
-        <v>0.113025</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="70">
@@ -5236,7 +5236,7 @@
         <v>2015</v>
       </c>
       <c r="D70">
-        <v>0.876253260641644</v>
+        <v>0.876229209477878</v>
       </c>
       <c r="E70">
         <v>0.08390022675736962</v>
@@ -5251,46 +5251,46 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0.103687074829932</v>
+        <v>0.1036575963718821</v>
       </c>
       <c r="J70">
-        <v>-0.009047619047619047</v>
+        <v>-0.009029478458049887</v>
       </c>
       <c r="K70">
-        <v>-0.3950421052631579</v>
+        <v>-0.3950578947368421</v>
       </c>
       <c r="L70">
-        <v>-0.07781578947368421</v>
+        <v>-0.07778421052631579</v>
       </c>
       <c r="M70">
-        <v>0.4812111553784861</v>
+        <v>0.4811713147410359</v>
       </c>
       <c r="N70">
-        <v>0.04300796812749004</v>
+        <v>0.04301593625498008</v>
       </c>
       <c r="O70">
-        <v>0.4463310344827586</v>
+        <v>0.4463241379310345</v>
       </c>
       <c r="P70">
-        <v>0.01162758620689655</v>
+        <v>0.01179310344827586</v>
       </c>
       <c r="Q70">
-        <v>0.5289245283018867</v>
+        <v>0.5288396226415094</v>
       </c>
       <c r="R70">
-        <v>0.08593396226415094</v>
+        <v>0.08572641509433962</v>
       </c>
       <c r="S70">
-        <v>-0.394961038961039</v>
+        <v>-0.3949285714285714</v>
       </c>
       <c r="T70">
-        <v>-0.1197467532467532</v>
+        <v>-0.1197012987012987</v>
       </c>
       <c r="U70">
-        <v>-0.3953888888888889</v>
+        <v>-0.3956111111111111</v>
       </c>
       <c r="V70">
-        <v>0.1015555555555556</v>
+        <v>0.1015277777777778</v>
       </c>
     </row>
     <row r="71">
@@ -5306,7 +5306,7 @@
         <v>2017</v>
       </c>
       <c r="D71">
-        <v>0.881209</v>
+        <v>0.881185</v>
       </c>
       <c r="E71">
         <v>0.08222222222222222</v>
@@ -5321,46 +5321,46 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0.09869555555555555</v>
+        <v>0.09866222222222222</v>
       </c>
       <c r="J71">
-        <v>-0.002439999999999999</v>
+        <v>-0.002348888888888888</v>
       </c>
       <c r="K71">
-        <v>-0.390865</v>
+        <v>-0.390885</v>
       </c>
       <c r="L71">
-        <v>-0.055435</v>
+        <v>-0.05532</v>
       </c>
       <c r="M71">
-        <v>0.490344</v>
+        <v>0.4903</v>
       </c>
       <c r="N71">
-        <v>0.039956</v>
+        <v>0.040028</v>
       </c>
       <c r="O71">
-        <v>0.4477013888888889</v>
+        <v>0.4477083333333333</v>
       </c>
       <c r="P71">
-        <v>0.03684722222222223</v>
+        <v>0.03702083333333334</v>
       </c>
       <c r="Q71">
-        <v>0.5482735849056604</v>
+        <v>0.5481603773584905</v>
       </c>
       <c r="R71">
-        <v>0.04417924528301887</v>
+        <v>0.04411320754716981</v>
       </c>
       <c r="S71">
-        <v>-0.3911975308641975</v>
+        <v>-0.3912469135802469</v>
       </c>
       <c r="T71">
-        <v>-0.09554938271604939</v>
+        <v>-0.09537037037037037</v>
       </c>
       <c r="U71">
-        <v>-0.3894473684210527</v>
+        <v>-0.3893421052631579</v>
       </c>
       <c r="V71">
-        <v>0.1155789473684211</v>
+        <v>0.115421052631579</v>
       </c>
     </row>
     <row r="72">
@@ -5376,7 +5376,7 @@
         <v>2019</v>
       </c>
       <c r="D72">
-        <v>0.873305742965279</v>
+        <v>0.8725610498601284</v>
       </c>
       <c r="E72">
         <v>0.1015801354401806</v>
@@ -5391,46 +5391,46 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0.03720993227990971</v>
+        <v>0.03754853273137698</v>
       </c>
       <c r="J72">
-        <v>0.02889841986455982</v>
+        <v>0.02869074492099323</v>
       </c>
       <c r="K72">
-        <v>-0.3705338983050848</v>
+        <v>-0.3698474576271186</v>
       </c>
       <c r="L72">
-        <v>0.005923728813559323</v>
+        <v>0.005724576271186441</v>
       </c>
       <c r="M72">
-        <v>0.5027718446601942</v>
+        <v>0.5027135922330097</v>
       </c>
       <c r="N72">
-        <v>0.05988834951456311</v>
+        <v>0.05966990291262136</v>
       </c>
       <c r="O72">
-        <v>0.4613008849557522</v>
+        <v>0.4612389380530973</v>
       </c>
       <c r="P72">
-        <v>0.07339823008849558</v>
+        <v>0.0734070796460177</v>
       </c>
       <c r="Q72">
-        <v>0.5531612903225807</v>
+        <v>0.5531075268817204</v>
       </c>
       <c r="R72">
-        <v>0.04347311827956989</v>
+        <v>0.04297849462365592</v>
       </c>
       <c r="S72">
-        <v>-0.3679946808510638</v>
+        <v>-0.3675</v>
       </c>
       <c r="T72">
-        <v>-0.03856914893617022</v>
+        <v>-0.03832978723404255</v>
       </c>
       <c r="U72">
-        <v>-0.3804791666666666</v>
+        <v>-0.3790416666666667</v>
       </c>
       <c r="V72">
-        <v>0.1801875</v>
+        <v>0.1782708333333333</v>
       </c>
     </row>
     <row r="73">
@@ -5446,61 +5446,61 @@
         <v>2021</v>
       </c>
       <c r="D73">
-        <v>0.8854733850129199</v>
+        <v>0.8871290388968924</v>
       </c>
       <c r="E73">
-        <v>0.07954545454545454</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="F73">
-        <v>0.1288888888888889</v>
+        <v>0.1283185840707965</v>
       </c>
       <c r="G73">
-        <v>0.02790697674418605</v>
+        <v>0.03255813953488372</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>0.05265227272727273</v>
+        <v>0.05102267573696145</v>
       </c>
       <c r="J73">
-        <v>0.022725</v>
+        <v>0.02320181405895692</v>
       </c>
       <c r="K73">
-        <v>-0.3800222222222222</v>
+        <v>-0.3814778761061947</v>
       </c>
       <c r="L73">
-        <v>-0.03020888888888889</v>
+        <v>-0.02958849557522124</v>
       </c>
       <c r="M73">
-        <v>0.5054511627906977</v>
+        <v>0.5056511627906977</v>
       </c>
       <c r="N73">
-        <v>0.07812093023255814</v>
+        <v>0.07869302325581395</v>
       </c>
       <c r="O73">
-        <v>0.464495867768595</v>
+        <v>0.4643140495867769</v>
       </c>
       <c r="P73">
-        <v>0.1010661157024793</v>
+        <v>0.1014545454545455</v>
       </c>
       <c r="Q73">
-        <v>0.5581702127659575</v>
+        <v>0.5588617021276596</v>
       </c>
       <c r="R73">
-        <v>0.04858510638297872</v>
+        <v>0.04939361702127659</v>
       </c>
       <c r="S73">
-        <v>-0.3799943502824858</v>
+        <v>-0.3798926553672317</v>
       </c>
       <c r="T73">
-        <v>-0.08277966101694915</v>
+        <v>-0.08299435028248588</v>
       </c>
       <c r="U73">
-        <v>-0.380125</v>
+        <v>-0.3872040816326531</v>
       </c>
       <c r="V73">
-        <v>0.1636458333333333</v>
+        <v>0.1633265306122449</v>
       </c>
     </row>
     <row r="74">
@@ -8978,7 +8978,7 @@
         <v>1981</v>
       </c>
       <c r="D125">
-        <v>0.6096191626409018</v>
+        <v>0.6096376811594203</v>
       </c>
       <c r="E125">
         <v>0.3465346534653465</v>
@@ -8993,10 +8993,10 @@
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0.03050495049504951</v>
+        <v>0.03051485148514852</v>
       </c>
       <c r="J125">
-        <v>-0.04136633663366337</v>
+        <v>-0.04130693069306931</v>
       </c>
       <c r="K125">
         <v>-0.2993043478260869</v>
@@ -9005,16 +9005,16 @@
         <v>0.2607391304347826</v>
       </c>
       <c r="M125">
-        <v>0.3103148148148148</v>
+        <v>0.3103333333333333</v>
       </c>
       <c r="N125">
-        <v>-0.3174074074074074</v>
+        <v>-0.3172962962962963</v>
       </c>
       <c r="O125">
-        <v>0.2871363636363636</v>
+        <v>0.2871590909090909</v>
       </c>
       <c r="P125">
-        <v>-0.4334090909090909</v>
+        <v>-0.4332727272727273</v>
       </c>
       <c r="Q125">
         <v>0.4123</v>
@@ -9048,7 +9048,7 @@
         <v>1983</v>
       </c>
       <c r="D126">
-        <v>0.6084715415019764</v>
+        <v>0.608489723320158</v>
       </c>
       <c r="E126">
         <v>0.3366336633663367</v>
@@ -9063,10 +9063,10 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>0.03001980198019802</v>
+        <v>0.03002970297029703</v>
       </c>
       <c r="J126">
-        <v>-0.05296039603960396</v>
+        <v>-0.0529009900990099</v>
       </c>
       <c r="K126">
         <v>-0.3013260869565217</v>
@@ -9075,16 +9075,16 @@
         <v>0.2466521739130435</v>
       </c>
       <c r="M126">
-        <v>0.3071454545454546</v>
+        <v>0.3071636363636364</v>
       </c>
       <c r="N126">
-        <v>-0.3035454545454546</v>
+        <v>-0.3034363636363636</v>
       </c>
       <c r="O126">
-        <v>0.28425</v>
+        <v>0.2842727272727273</v>
       </c>
       <c r="P126">
-        <v>-0.4241136363636364</v>
+        <v>-0.4239772727272727</v>
       </c>
       <c r="Q126">
         <v>0.3987272727272727</v>
@@ -9118,7 +9118,7 @@
         <v>1985</v>
       </c>
       <c r="D127">
-        <v>0.6195957446808511</v>
+        <v>0.6195772261623325</v>
       </c>
       <c r="E127">
         <v>0.3168316831683168</v>
@@ -9133,10 +9133,10 @@
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0.02567326732673268</v>
+        <v>0.02566336633663367</v>
       </c>
       <c r="J127">
-        <v>-0.05194059405940594</v>
+        <v>-0.05196039603960396</v>
       </c>
       <c r="K127">
         <v>-0.305595744680851</v>
@@ -9145,22 +9145,22 @@
         <v>0.2152553191489362</v>
       </c>
       <c r="M127">
-        <v>0.314</v>
+        <v>0.3139814814814815</v>
       </c>
       <c r="N127">
-        <v>-0.2845</v>
+        <v>-0.284537037037037</v>
       </c>
       <c r="O127">
-        <v>0.2875121951219512</v>
+        <v>0.2875365853658536</v>
       </c>
       <c r="P127">
-        <v>-0.423</v>
+        <v>-0.4228536585365854</v>
       </c>
       <c r="Q127">
-        <v>0.3975384615384616</v>
+        <v>0.3973846153846154</v>
       </c>
       <c r="R127">
-        <v>0.1523076923076923</v>
+        <v>0.1516923076923077</v>
       </c>
       <c r="S127">
         <v>-0.3403428571428572</v>
@@ -9188,7 +9188,7 @@
         <v>1987</v>
       </c>
       <c r="D128">
-        <v>0.6082332015810277</v>
+        <v>0.608211462450593</v>
       </c>
       <c r="E128">
         <v>0.3069306930693069</v>
@@ -9203,10 +9203,10 @@
         <v>0</v>
       </c>
       <c r="I128">
-        <v>-0.01734653465346534</v>
+        <v>-0.01735643564356435</v>
       </c>
       <c r="J128">
-        <v>-0.04308910891089109</v>
+        <v>-0.04310891089108911</v>
       </c>
       <c r="K128">
         <v>-0.2943636363636364</v>
@@ -9215,22 +9215,22 @@
         <v>0.2002363636363636</v>
       </c>
       <c r="M128">
-        <v>0.3138695652173913</v>
+        <v>0.3138478260869565</v>
       </c>
       <c r="N128">
-        <v>-0.3340217391304348</v>
+        <v>-0.3340652173913043</v>
       </c>
       <c r="O128">
-        <v>0.2928157894736842</v>
+        <v>0.2928421052631579</v>
       </c>
       <c r="P128">
-        <v>-0.4304736842105263</v>
+        <v>-0.4303157894736842</v>
       </c>
       <c r="Q128">
-        <v>0.413875</v>
+        <v>0.413625</v>
       </c>
       <c r="R128">
-        <v>0.124125</v>
+        <v>0.123125</v>
       </c>
       <c r="S128">
         <v>-0.3344615384615385</v>
@@ -9258,7 +9258,7 @@
         <v>1989</v>
       </c>
       <c r="D129">
-        <v>0.6162546583850932</v>
+        <v>0.6162329192546584</v>
       </c>
       <c r="E129">
         <v>0.2941176470588235</v>
@@ -9273,10 +9273,10 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>-0.01550980392156863</v>
+        <v>-0.01551960784313725</v>
       </c>
       <c r="J129">
-        <v>-0.06824509803921569</v>
+        <v>-0.06826470588235295</v>
       </c>
       <c r="K129">
         <v>-0.2934285714285714</v>
@@ -9285,22 +9285,22 @@
         <v>0.12325</v>
       </c>
       <c r="M129">
-        <v>0.3228260869565218</v>
+        <v>0.322804347826087</v>
       </c>
       <c r="N129">
-        <v>-0.3013695652173913</v>
+        <v>-0.3014130434782609</v>
       </c>
       <c r="O129">
-        <v>0.2958378378378378</v>
+        <v>0.2958648648648649</v>
       </c>
       <c r="P129">
-        <v>-0.3971081081081081</v>
+        <v>-0.396945945945946</v>
       </c>
       <c r="Q129">
-        <v>0.4337777777777778</v>
+        <v>0.4335555555555556</v>
       </c>
       <c r="R129">
-        <v>0.09222222222222222</v>
+        <v>0.09133333333333334</v>
       </c>
       <c r="S129">
         <v>-0.326</v>
@@ -9328,7 +9328,7 @@
         <v>1991</v>
       </c>
       <c r="D130">
-        <v>0.6187860501567398</v>
+        <v>0.6187633228840126</v>
       </c>
       <c r="E130">
         <v>0.2941176470588235</v>
@@ -9343,10 +9343,10 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>-0.03224509803921569</v>
+        <v>-0.03225490196078431</v>
       </c>
       <c r="J130">
-        <v>-0.07179411764705883</v>
+        <v>-0.07181372549019609</v>
       </c>
       <c r="K130">
         <v>-0.2991724137931034</v>
@@ -9355,22 +9355,22 @@
         <v>0.106</v>
       </c>
       <c r="M130">
-        <v>0.3196136363636364</v>
+        <v>0.3195909090909091</v>
       </c>
       <c r="N130">
-        <v>-0.3061590909090909</v>
+        <v>-0.3062045454545455</v>
       </c>
       <c r="O130">
-        <v>0.2902571428571429</v>
+        <v>0.2902857142857143</v>
       </c>
       <c r="P130">
-        <v>-0.4086</v>
+        <v>-0.4084285714285714</v>
       </c>
       <c r="Q130">
-        <v>0.4337777777777778</v>
+        <v>0.4335555555555556</v>
       </c>
       <c r="R130">
-        <v>0.09222222222222222</v>
+        <v>0.09133333333333334</v>
       </c>
       <c r="S130">
         <v>-0.3322325581395349</v>
@@ -9398,7 +9398,7 @@
         <v>1993</v>
       </c>
       <c r="D131">
-        <v>0.6337040935672514</v>
+        <v>0.6336994152046784</v>
       </c>
       <c r="E131">
         <v>0.2745098039215687</v>
@@ -9413,37 +9413,37 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>-0.01661764705882353</v>
+        <v>-0.01663725490196078</v>
       </c>
       <c r="J131">
-        <v>-0.07651960784313726</v>
+        <v>-0.07652941176470589</v>
       </c>
       <c r="K131">
-        <v>-0.2961929824561403</v>
+        <v>-0.2962105263157895</v>
       </c>
       <c r="L131">
         <v>0.0742280701754386</v>
       </c>
       <c r="M131">
-        <v>0.3375111111111111</v>
+        <v>0.3374888888888889</v>
       </c>
       <c r="N131">
-        <v>-0.2674666666666667</v>
+        <v>-0.2674888888888889</v>
       </c>
       <c r="O131">
-        <v>0.2893125</v>
+        <v>0.28934375</v>
       </c>
       <c r="P131">
-        <v>-0.41934375</v>
+        <v>-0.41915625</v>
       </c>
       <c r="Q131">
-        <v>0.4561538461538462</v>
+        <v>0.456</v>
       </c>
       <c r="R131">
-        <v>0.1063846153846154</v>
+        <v>0.1058461538461539</v>
       </c>
       <c r="S131">
-        <v>-0.3272045454545455</v>
+        <v>-0.3272272727272727</v>
       </c>
       <c r="T131">
         <v>-0.07679545454545454</v>
@@ -9468,7 +9468,7 @@
         <v>1995</v>
       </c>
       <c r="D132">
-        <v>0.6524844696969697</v>
+        <v>0.652505303030303</v>
       </c>
       <c r="E132">
         <v>0.2330097087378641</v>
@@ -9483,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0.04689320388349515</v>
+        <v>0.04688349514563107</v>
       </c>
       <c r="J132">
-        <v>-0.1198446601941748</v>
+        <v>-0.1198543689320388</v>
       </c>
       <c r="K132">
-        <v>-0.3015208333333333</v>
+        <v>-0.3015416666666667</v>
       </c>
       <c r="L132">
         <v>0.008479166666666666</v>
@@ -9498,22 +9498,22 @@
         <v>0.3509636363636364</v>
       </c>
       <c r="N132">
-        <v>-0.2318363636363636</v>
+        <v>-0.2318545454545455</v>
       </c>
       <c r="O132">
-        <v>0.3153170731707317</v>
+        <v>0.3153414634146341</v>
       </c>
       <c r="P132">
-        <v>-0.3587317073170732</v>
+        <v>-0.3585853658536585</v>
       </c>
       <c r="Q132">
-        <v>0.4553571428571428</v>
+        <v>0.4552857142857143</v>
       </c>
       <c r="R132">
-        <v>0.1397857142857143</v>
+        <v>0.1392857142857143</v>
       </c>
       <c r="S132">
-        <v>-0.3219210526315789</v>
+        <v>-0.3219473684210526</v>
       </c>
       <c r="T132">
         <v>-0.1414210526315789</v>
@@ -9538,7 +9538,7 @@
         <v>1997</v>
       </c>
       <c r="D133">
-        <v>0.6839434343434343</v>
+        <v>0.6839656565656567</v>
       </c>
       <c r="E133">
         <v>0.18</v>
@@ -9553,13 +9553,13 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0.06568</v>
+        <v>0.06567000000000001</v>
       </c>
       <c r="J133">
-        <v>-0.12008</v>
+        <v>-0.12009</v>
       </c>
       <c r="K133">
-        <v>-0.3104888888888889</v>
+        <v>-0.3105111111111111</v>
       </c>
       <c r="L133">
         <v>-0.04957777777777778</v>
@@ -9568,22 +9568,22 @@
         <v>0.3734545454545455</v>
       </c>
       <c r="N133">
-        <v>-0.1777636363636364</v>
+        <v>-0.1777818181818182</v>
       </c>
       <c r="O133">
-        <v>0.3383846153846154</v>
+        <v>0.3384102564102564</v>
       </c>
       <c r="P133">
-        <v>-0.3060512820512821</v>
+        <v>-0.3058974358974359</v>
       </c>
       <c r="Q133">
-        <v>0.4589375</v>
+        <v>0.458875</v>
       </c>
       <c r="R133">
-        <v>0.1349375</v>
+        <v>0.1345</v>
       </c>
       <c r="S133">
-        <v>-0.326027027027027</v>
+        <v>-0.3260540540540541</v>
       </c>
       <c r="T133">
         <v>-0.1525945945945946</v>
@@ -9608,7 +9608,7 @@
         <v>1999</v>
       </c>
       <c r="D134">
-        <v>0.6583835403726708</v>
+        <v>0.6583517080745342</v>
       </c>
       <c r="E134">
         <v>0.2156862745098039</v>
@@ -9623,40 +9623,40 @@
         <v>0.06862745098039216</v>
       </c>
       <c r="I134">
-        <v>0.06661764705882353</v>
+        <v>0.06657843137254903</v>
       </c>
       <c r="J134">
-        <v>-0.1485588235294118</v>
+        <v>-0.1486372549019608</v>
       </c>
       <c r="K134">
-        <v>-0.2948478260869565</v>
+        <v>-0.2948695652173913</v>
       </c>
       <c r="L134">
-        <v>-0.06293478260869566</v>
+        <v>-0.06295652173913044</v>
       </c>
       <c r="M134">
-        <v>0.3635357142857143</v>
+        <v>0.3634821428571429</v>
       </c>
       <c r="N134">
-        <v>-0.2188928571428571</v>
+        <v>-0.2190178571428572</v>
       </c>
       <c r="O134">
-        <v>0.330075</v>
+        <v>0.330025</v>
       </c>
       <c r="P134">
         <v>-0.3467</v>
       </c>
       <c r="Q134">
-        <v>0.4471875</v>
+        <v>0.447125</v>
       </c>
       <c r="R134">
-        <v>0.100625</v>
+        <v>0.1001875</v>
       </c>
       <c r="S134">
-        <v>-0.3238378378378378</v>
+        <v>-0.3238648648648649</v>
       </c>
       <c r="T134">
-        <v>-0.1520540540540541</v>
+        <v>-0.1520810810810811</v>
       </c>
       <c r="U134">
         <v>-0.1756666666666667</v>
@@ -9678,7 +9678,7 @@
         <v>2001</v>
       </c>
       <c r="D135">
-        <v>0.66318</v>
+        <v>0.6631400000000001</v>
       </c>
       <c r="E135">
         <v>0.2178217821782178</v>
@@ -9693,40 +9693,40 @@
         <v>0.06</v>
       </c>
       <c r="I135">
-        <v>0.03374257425742574</v>
+        <v>0.03370297029702971</v>
       </c>
       <c r="J135">
-        <v>-0.1233069306930693</v>
+        <v>-0.1233861386138614</v>
       </c>
       <c r="K135">
-        <v>-0.29474</v>
+        <v>-0.29476</v>
       </c>
       <c r="L135">
-        <v>-0.0416</v>
+        <v>-0.04162</v>
       </c>
       <c r="M135">
-        <v>0.36844</v>
+        <v>0.36838</v>
       </c>
       <c r="N135">
-        <v>-0.19542</v>
+        <v>-0.19556</v>
       </c>
       <c r="O135">
-        <v>0.3351714285714286</v>
+        <v>0.3351142857142857</v>
       </c>
       <c r="P135">
         <v>-0.3329142857142857</v>
       </c>
       <c r="Q135">
-        <v>0.4460666666666667</v>
+        <v>0.446</v>
       </c>
       <c r="R135">
-        <v>0.1254</v>
+        <v>0.1249333333333333</v>
       </c>
       <c r="S135">
-        <v>-0.3210487804878049</v>
+        <v>-0.3210731707317073</v>
       </c>
       <c r="T135">
-        <v>-0.1265365853658537</v>
+        <v>-0.1265609756097561</v>
       </c>
       <c r="U135">
         <v>-0.1748888888888889</v>
@@ -9748,7 +9748,7 @@
         <v>2003</v>
       </c>
       <c r="D136">
-        <v>0.6498014705882353</v>
+        <v>0.6497438725490197</v>
       </c>
       <c r="E136">
         <v>0.22</v>
@@ -9763,40 +9763,40 @@
         <v>0.0505050505050505</v>
       </c>
       <c r="I136">
-        <v>0.03959</v>
+        <v>0.03954</v>
       </c>
       <c r="J136">
-        <v>-0.12167</v>
+        <v>-0.12179</v>
       </c>
       <c r="K136">
-        <v>-0.2919583333333333</v>
+        <v>-0.2919791666666667</v>
       </c>
       <c r="L136">
-        <v>-0.04097916666666666</v>
+        <v>-0.04099999999999999</v>
       </c>
       <c r="M136">
-        <v>0.357843137254902</v>
+        <v>0.3577647058823529</v>
       </c>
       <c r="N136">
-        <v>-0.1881764705882353</v>
+        <v>-0.1883921568627451</v>
       </c>
       <c r="O136">
-        <v>0.3305833333333333</v>
+        <v>0.3305555555555555</v>
       </c>
       <c r="P136">
-        <v>-0.2936111111111111</v>
+        <v>-0.2936388888888889</v>
       </c>
       <c r="Q136">
-        <v>0.4232666666666667</v>
+        <v>0.4230666666666666</v>
       </c>
       <c r="R136">
-        <v>0.06486666666666667</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="S136">
-        <v>-0.3195128205128205</v>
+        <v>-0.3195384615384615</v>
       </c>
       <c r="T136">
-        <v>-0.1342564102564102</v>
+        <v>-0.1342820512820513</v>
       </c>
       <c r="U136">
         <v>-0.1725555555555555</v>
@@ -9818,7 +9818,7 @@
         <v>2005</v>
       </c>
       <c r="D137">
-        <v>0.685840404040404</v>
+        <v>0.6858080808080809</v>
       </c>
       <c r="E137">
         <v>0.1881188118811881</v>
@@ -9833,40 +9833,40 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0.06596039603960396</v>
+        <v>0.06592079207920792</v>
       </c>
       <c r="J137">
-        <v>-0.1397524752475248</v>
+        <v>-0.1398118811881188</v>
       </c>
       <c r="K137">
-        <v>-0.3078222222222222</v>
+        <v>-0.3078444444444444</v>
       </c>
       <c r="L137">
-        <v>-0.09873333333333333</v>
+        <v>-0.09875555555555555</v>
       </c>
       <c r="M137">
-        <v>0.3780181818181818</v>
+        <v>0.3779636363636364</v>
       </c>
       <c r="N137">
-        <v>-0.1648909090909091</v>
+        <v>-0.1649818181818182</v>
       </c>
       <c r="O137">
         <v>0.3374857142857143</v>
       </c>
       <c r="P137">
-        <v>-0.2776285714285714</v>
+        <v>-0.2774857142857143</v>
       </c>
       <c r="Q137">
-        <v>0.44895</v>
+        <v>0.4488</v>
       </c>
       <c r="R137">
-        <v>0.0324</v>
+        <v>0.0319</v>
       </c>
       <c r="S137">
-        <v>-0.3192926829268293</v>
+        <v>-0.3193170731707317</v>
       </c>
       <c r="T137">
-        <v>-0.1430487804878049</v>
+        <v>-0.1430731707317073</v>
       </c>
       <c r="U137">
         <v>-0.19025</v>
@@ -9888,7 +9888,7 @@
         <v>2007</v>
       </c>
       <c r="D138">
-        <v>0.6871482352941176</v>
+        <v>0.6871486274509804</v>
       </c>
       <c r="E138">
         <v>0.2058823529411765</v>
@@ -9903,40 +9903,40 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0.04569607843137255</v>
+        <v>0.0456764705882353</v>
       </c>
       <c r="J138">
-        <v>-0.1163529411764706</v>
+        <v>-0.1163235294117647</v>
       </c>
       <c r="K138">
-        <v>-0.29556</v>
+        <v>-0.29558</v>
       </c>
       <c r="L138">
-        <v>-0.08492</v>
+        <v>-0.08495999999999999</v>
       </c>
       <c r="M138">
-        <v>0.3915882352941176</v>
+        <v>0.3915686274509804</v>
       </c>
       <c r="N138">
-        <v>-0.1415882352941177</v>
+        <v>-0.1414901960784314</v>
       </c>
       <c r="O138">
-        <v>0.3556129032258065</v>
+        <v>0.3556451612903226</v>
       </c>
       <c r="P138">
-        <v>-0.2669677419354839</v>
+        <v>-0.2666774193548387</v>
       </c>
       <c r="Q138">
-        <v>0.44735</v>
+        <v>0.44725</v>
       </c>
       <c r="R138">
-        <v>0.05275</v>
+        <v>0.05255</v>
       </c>
       <c r="S138">
-        <v>-0.3077333333333334</v>
+        <v>-0.3077555555555556</v>
       </c>
       <c r="T138">
-        <v>-0.1264666666666667</v>
+        <v>-0.1265111111111111</v>
       </c>
       <c r="U138">
         <v>-0.186</v>
@@ -9958,7 +9958,7 @@
         <v>2009</v>
       </c>
       <c r="D139">
-        <v>0.7063484848484849</v>
+        <v>0.7060833333333334</v>
       </c>
       <c r="E139">
         <v>0.2342342342342342</v>
@@ -9973,40 +9973,40 @@
         <v>0</v>
       </c>
       <c r="I139">
-        <v>-0.031</v>
+        <v>-0.03113513513513513</v>
       </c>
       <c r="J139">
-        <v>-0.09261261261261261</v>
+        <v>-0.09287387387387387</v>
       </c>
       <c r="K139">
-        <v>-0.3089848484848485</v>
+        <v>-0.3090151515151515</v>
       </c>
       <c r="L139">
-        <v>-0.07192424242424242</v>
+        <v>-0.07195454545454545</v>
       </c>
       <c r="M139">
-        <v>0.3973636363636364</v>
+        <v>0.3970681818181818</v>
       </c>
       <c r="N139">
-        <v>-0.1166363636363636</v>
+        <v>-0.11725</v>
       </c>
       <c r="O139">
-        <v>0.3543076923076923</v>
+        <v>0.3538846153846154</v>
       </c>
       <c r="P139">
-        <v>-0.2338846153846154</v>
+        <v>-0.2347692307692308</v>
       </c>
       <c r="Q139">
-        <v>0.4595555555555556</v>
+        <v>0.4594444444444444</v>
       </c>
       <c r="R139">
-        <v>0.05272222222222222</v>
+        <v>0.0525</v>
       </c>
       <c r="S139">
-        <v>-0.3230169491525424</v>
+        <v>-0.3230508474576271</v>
       </c>
       <c r="T139">
-        <v>-0.1090508474576271</v>
+        <v>-0.1090847457627119</v>
       </c>
       <c r="U139">
         <v>-0.1907142857142857</v>
@@ -10028,7 +10028,7 @@
         <v>2011</v>
       </c>
       <c r="D140">
-        <v>0.7436179245283019</v>
+        <v>0.7432955974842768</v>
       </c>
       <c r="E140">
         <v>0.2058823529411765</v>
@@ -10043,40 +10043,40 @@
         <v>0</v>
       </c>
       <c r="I140">
-        <v>0.04680392156862745</v>
+        <v>0.04655882352941176</v>
       </c>
       <c r="J140">
-        <v>-0.08115686274509804</v>
+        <v>-0.0815</v>
       </c>
       <c r="K140">
-        <v>-0.3008679245283019</v>
+        <v>-0.3009622641509434</v>
       </c>
       <c r="L140">
-        <v>-0.07126415094339622</v>
+        <v>-0.07115094339622641</v>
       </c>
       <c r="M140">
-        <v>0.44275</v>
+        <v>0.4423333333333334</v>
       </c>
       <c r="N140">
-        <v>-0.08541666666666667</v>
+        <v>-0.08627083333333334</v>
       </c>
       <c r="O140">
-        <v>0.4093</v>
+        <v>0.4085</v>
       </c>
       <c r="P140">
-        <v>-0.1669333333333334</v>
+        <v>-0.1688666666666667</v>
       </c>
       <c r="Q140">
-        <v>0.4985</v>
+        <v>0.4987222222222222</v>
       </c>
       <c r="R140">
-        <v>0.05044444444444444</v>
+        <v>0.05138888888888889</v>
       </c>
       <c r="S140">
-        <v>-0.314404255319149</v>
+        <v>-0.3145106382978723</v>
       </c>
       <c r="T140">
-        <v>-0.112468085106383</v>
+        <v>-0.1123404255319149</v>
       </c>
       <c r="U140">
         <v>-0.1948333333333334</v>
@@ -10098,7 +10098,7 @@
         <v>2013</v>
       </c>
       <c r="D141">
-        <v>0.7968634630053395</v>
+        <v>0.7967036613272311</v>
       </c>
       <c r="E141">
         <v>0.2</v>
@@ -10113,40 +10113,40 @@
         <v>0</v>
       </c>
       <c r="I141">
-        <v>0.02145714285714286</v>
+        <v>0.02126666666666667</v>
       </c>
       <c r="J141">
-        <v>-0.06761904761904762</v>
+        <v>-0.06767619047619047</v>
       </c>
       <c r="K141">
-        <v>-0.3272982456140351</v>
+        <v>-0.3274210526315789</v>
       </c>
       <c r="L141">
-        <v>-0.07912280701754386</v>
+        <v>-0.07894736842105263</v>
       </c>
       <c r="M141">
-        <v>0.4695652173913044</v>
+        <v>0.4692826086956522</v>
       </c>
       <c r="N141">
-        <v>-0.04289130434782609</v>
+        <v>-0.04323913043478261</v>
       </c>
       <c r="O141">
-        <v>0.4364642857142857</v>
+        <v>0.4356785714285714</v>
       </c>
       <c r="P141">
-        <v>-0.09628571428571429</v>
+        <v>-0.09807142857142857</v>
       </c>
       <c r="Q141">
-        <v>0.5210555555555556</v>
+        <v>0.5215555555555556</v>
       </c>
       <c r="R141">
-        <v>0.04016666666666666</v>
+        <v>0.04205555555555555</v>
       </c>
       <c r="S141">
-        <v>-0.3414117647058824</v>
+        <v>-0.3415490196078431</v>
       </c>
       <c r="T141">
-        <v>-0.1164901960784314</v>
+        <v>-0.1162941176470588</v>
       </c>
       <c r="U141">
         <v>-0.2073333333333333</v>
@@ -10168,7 +10168,7 @@
         <v>2015</v>
       </c>
       <c r="D142">
-        <v>0.8130109427609428</v>
+        <v>0.8128922558922559</v>
       </c>
       <c r="E142">
         <v>0.16</v>
@@ -10183,40 +10183,40 @@
         <v>0</v>
       </c>
       <c r="I142">
-        <v>0.10415</v>
+        <v>0.10393</v>
       </c>
       <c r="J142">
-        <v>-0.09181</v>
+        <v>-0.09238</v>
       </c>
       <c r="K142">
-        <v>-0.3346590909090909</v>
+        <v>-0.3348181818181818</v>
       </c>
       <c r="L142">
-        <v>-0.1274090909090909</v>
+        <v>-0.1271818181818182</v>
       </c>
       <c r="M142">
-        <v>0.4783518518518519</v>
+        <v>0.4780740740740741</v>
       </c>
       <c r="N142">
-        <v>-0.05477777777777778</v>
+        <v>-0.05601851851851852</v>
       </c>
       <c r="O142">
-        <v>0.4546666666666667</v>
+        <v>0.4539393939393939</v>
       </c>
       <c r="P142">
-        <v>-0.1065454545454545</v>
+        <v>-0.108969696969697</v>
       </c>
       <c r="Q142">
-        <v>0.5155714285714286</v>
+        <v>0.516</v>
       </c>
       <c r="R142">
-        <v>0.02657142857142857</v>
+        <v>0.02719047619047619</v>
       </c>
       <c r="S142">
-        <v>-0.3435365853658536</v>
+        <v>-0.3437073170731707</v>
       </c>
       <c r="T142">
-        <v>-0.1426585365853658</v>
+        <v>-0.1424146341463415</v>
       </c>
       <c r="U142">
         <v>-0.2133333333333333</v>
@@ -10238,7 +10238,7 @@
         <v>2017</v>
       </c>
       <c r="D143">
-        <v>0.826032196969697</v>
+        <v>0.8257962121212121</v>
       </c>
       <c r="E143">
         <v>0.1714285714285714</v>
@@ -10253,40 +10253,40 @@
         <v>0</v>
       </c>
       <c r="I143">
-        <v>0.09611428571428572</v>
+        <v>0.09584761904761904</v>
       </c>
       <c r="J143">
-        <v>-0.06996190476190477</v>
+        <v>-0.07046666666666666</v>
       </c>
       <c r="K143">
-        <v>-0.3363958333333333</v>
+        <v>-0.3365416666666667</v>
       </c>
       <c r="L143">
-        <v>-0.1054791666666667</v>
+        <v>-0.1053125</v>
       </c>
       <c r="M143">
-        <v>0.4896363636363636</v>
+        <v>0.4892545454545454</v>
       </c>
       <c r="N143">
-        <v>-0.03029090909090909</v>
+        <v>-0.0314</v>
       </c>
       <c r="O143">
-        <v>0.46925</v>
+        <v>0.46840625</v>
       </c>
       <c r="P143">
-        <v>-0.07703125</v>
+        <v>-0.07953125</v>
       </c>
       <c r="Q143">
-        <v>0.518</v>
+        <v>0.5182608695652174</v>
       </c>
       <c r="R143">
-        <v>0.03473913043478261</v>
+        <v>0.03556521739130435</v>
       </c>
       <c r="S143">
-        <v>-0.3504318181818182</v>
+        <v>-0.3505909090909091</v>
       </c>
       <c r="T143">
-        <v>-0.1248409090909091</v>
+        <v>-0.1246590909090909</v>
       </c>
       <c r="U143">
         <v>-0.182</v>
@@ -10308,7 +10308,7 @@
         <v>2019</v>
       </c>
       <c r="D144">
-        <v>0.8407890499194847</v>
+        <v>0.8406634460547504</v>
       </c>
       <c r="E144">
         <v>0.1568627450980392</v>
@@ -10323,40 +10323,40 @@
         <v>0</v>
       </c>
       <c r="I144">
-        <v>0.1027352941176471</v>
+        <v>0.1025196078431373</v>
       </c>
       <c r="J144">
-        <v>-0.04415686274509804</v>
+        <v>-0.04461764705882353</v>
       </c>
       <c r="K144">
-        <v>-0.3423260869565217</v>
+        <v>-0.3424782608695652</v>
       </c>
       <c r="L144">
-        <v>-0.1147608695652174</v>
+        <v>-0.1147391304347826</v>
       </c>
       <c r="M144">
-        <v>0.4984629629629629</v>
+        <v>0.4981851851851852</v>
       </c>
       <c r="N144">
-        <v>0.02577777777777777</v>
+        <v>0.02488888888888889</v>
       </c>
       <c r="O144">
-        <v>0.47425</v>
+        <v>0.47353125</v>
       </c>
       <c r="P144">
-        <v>0.034875</v>
+        <v>0.03209375</v>
       </c>
       <c r="Q144">
-        <v>0.5336818181818181</v>
+        <v>0.5340454545454546</v>
       </c>
       <c r="R144">
-        <v>0.01254545454545454</v>
+        <v>0.0144090909090909</v>
       </c>
       <c r="S144">
-        <v>-0.3537674418604651</v>
+        <v>-0.3539302325581395</v>
       </c>
       <c r="T144">
-        <v>-0.1249302325581395</v>
+        <v>-0.124906976744186</v>
       </c>
       <c r="U144">
         <v>-0.1783333333333333</v>
@@ -10378,7 +10378,7 @@
         <v>2021</v>
       </c>
       <c r="D145">
-        <v>0.8733165266106442</v>
+        <v>0.8729415766306523</v>
       </c>
       <c r="E145">
         <v>0.1568627450980392</v>
@@ -10393,46 +10393,46 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>0.08814705882352941</v>
+        <v>0.08801960784313725</v>
       </c>
       <c r="J145">
-        <v>-0.04769607843137255</v>
+        <v>-0.04805882352941176</v>
       </c>
       <c r="K145">
-        <v>-0.3485714285714286</v>
+        <v>-0.3485102040816326</v>
       </c>
       <c r="L145">
-        <v>-0.103530612244898</v>
+        <v>-0.1041632653061225</v>
       </c>
       <c r="M145">
-        <v>0.5247450980392157</v>
+        <v>0.5244313725490196</v>
       </c>
       <c r="N145">
-        <v>0.01617647058823529</v>
+        <v>0.01605882352941176</v>
       </c>
       <c r="O145">
-        <v>0.5016333333333334</v>
+        <v>0.5008333333333334</v>
       </c>
       <c r="P145">
-        <v>0.02716666666666667</v>
+        <v>0.0256</v>
       </c>
       <c r="Q145">
-        <v>0.5577619047619048</v>
+        <v>0.5581428571428572</v>
       </c>
       <c r="R145">
-        <v>0.000476190476190473</v>
+        <v>0.002428571428571424</v>
       </c>
       <c r="S145">
-        <v>-0.3506444444444444</v>
+        <v>-0.3508</v>
       </c>
       <c r="T145">
-        <v>-0.1319777777777778</v>
+        <v>-0.1319555555555555</v>
       </c>
       <c r="U145">
-        <v>-0.32525</v>
+        <v>-0.32275</v>
       </c>
       <c r="V145">
-        <v>0.2165</v>
+        <v>0.2085</v>
       </c>
     </row>
   </sheetData>
